--- a/Financials/Quarterly/KB_QTR_FIN.xlsx
+++ b/Financials/Quarterly/KB_QTR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8609E0-935A-4D50-8C77-B6C9C271F017}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="6" r:id="rId1"/>
@@ -17,12 +18,12 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
   <si>
     <t>KB</t>
   </si>
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,90 +689,102 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="11" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>42735</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3026900</v>
+        <v>3222100</v>
       </c>
       <c r="E8" s="3">
-        <v>2875300</v>
+        <v>3093300</v>
       </c>
       <c r="F8" s="3">
-        <v>2703300</v>
+        <v>2959700</v>
       </c>
       <c r="G8" s="3">
-        <v>2645900</v>
+        <v>2811400</v>
       </c>
       <c r="H8" s="3">
-        <v>2667700</v>
+        <v>2768900</v>
       </c>
       <c r="I8" s="3">
+        <v>2712100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2608400</v>
+      </c>
+      <c r="K8" s="3">
         <v>2453800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>9019700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>2233400</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -765,8 +812,14 @@
       <c r="K9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -794,8 +847,14 @@
       <c r="K10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -807,8 +866,10 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -836,8 +897,14 @@
       <c r="K12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -865,8 +932,14 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -894,37 +967,49 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-82100</v>
+        <v>-113500</v>
       </c>
       <c r="E15" s="3">
-        <v>-77800</v>
+        <v>-89900</v>
       </c>
       <c r="F15" s="3">
-        <v>-101400</v>
+        <v>-80300</v>
       </c>
       <c r="G15" s="3">
-        <v>-85500</v>
+        <v>-76100</v>
       </c>
       <c r="H15" s="3">
-        <v>-79700</v>
+        <v>-99100</v>
       </c>
       <c r="I15" s="3">
+        <v>-83600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-77900</v>
+      </c>
+      <c r="K15" s="3">
         <v>-66900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>-259800</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>-63200</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -933,66 +1018,80 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1155300</v>
+        <v>1402700</v>
       </c>
       <c r="E17" s="3">
-        <v>1094000</v>
+        <v>1241000</v>
       </c>
       <c r="F17" s="3">
-        <v>944100</v>
+        <v>1129600</v>
       </c>
       <c r="G17" s="3">
-        <v>981600</v>
+        <v>1069700</v>
       </c>
       <c r="H17" s="3">
-        <v>853800</v>
+        <v>923200</v>
       </c>
       <c r="I17" s="3">
+        <v>959800</v>
+      </c>
+      <c r="J17" s="3">
+        <v>834800</v>
+      </c>
+      <c r="K17" s="3">
         <v>1019100</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>3742800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>967500</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1871600</v>
+        <v>1819400</v>
       </c>
       <c r="E18" s="3">
-        <v>1781300</v>
+        <v>1852300</v>
       </c>
       <c r="F18" s="3">
-        <v>1759200</v>
+        <v>1830000</v>
       </c>
       <c r="G18" s="3">
-        <v>1664300</v>
+        <v>1741700</v>
       </c>
       <c r="H18" s="3">
-        <v>1814000</v>
+        <v>1845800</v>
       </c>
       <c r="I18" s="3">
+        <v>1752400</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1773600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1434700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>5276900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>1265900</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1004,66 +1103,80 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-698800</v>
+        <v>-1532400</v>
       </c>
       <c r="E20" s="3">
-        <v>-572200</v>
+        <v>-682900</v>
       </c>
       <c r="F20" s="3">
-        <v>-1105200</v>
+        <v>-683300</v>
       </c>
       <c r="G20" s="3">
-        <v>-584800</v>
+        <v>-559500</v>
       </c>
       <c r="H20" s="3">
-        <v>-691600</v>
+        <v>-1206300</v>
       </c>
       <c r="I20" s="3">
+        <v>-696800</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-676300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-566000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-2911100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-580200</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>1303900</v>
+        <v>445800</v>
       </c>
       <c r="E21" s="3">
-        <v>1337100</v>
+        <v>1306100</v>
       </c>
       <c r="F21" s="3">
-        <v>807200</v>
+        <v>1274900</v>
       </c>
       <c r="G21" s="3">
-        <v>1218900</v>
+        <v>1307400</v>
       </c>
       <c r="H21" s="3">
-        <v>1258000</v>
+        <v>789300</v>
       </c>
       <c r="I21" s="3">
+        <v>1191800</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1230000</v>
+      </c>
+      <c r="K21" s="3">
         <v>935700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>2626300</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>749100</v>
       </c>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1091,66 +1204,84 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>1172800</v>
+        <v>287000</v>
       </c>
       <c r="E23" s="3">
-        <v>1209100</v>
+        <v>1169400</v>
       </c>
       <c r="F23" s="3">
-        <v>654000</v>
+        <v>1146700</v>
       </c>
       <c r="G23" s="3">
-        <v>1079600</v>
+        <v>1182200</v>
       </c>
       <c r="H23" s="3">
-        <v>1122300</v>
+        <v>639400</v>
       </c>
       <c r="I23" s="3">
+        <v>1055600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1097400</v>
+      </c>
+      <c r="K23" s="3">
         <v>868700</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>2365800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>685700</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>320700</v>
+        <v>117300</v>
       </c>
       <c r="E24" s="3">
-        <v>337500</v>
+        <v>329900</v>
       </c>
       <c r="F24" s="3">
-        <v>155600</v>
+        <v>313600</v>
       </c>
       <c r="G24" s="3">
-        <v>271900</v>
+        <v>330000</v>
       </c>
       <c r="H24" s="3">
-        <v>218000</v>
+        <v>152200</v>
       </c>
       <c r="I24" s="3">
+        <v>265900</v>
+      </c>
+      <c r="J24" s="3">
+        <v>213200</v>
+      </c>
+      <c r="K24" s="3">
         <v>69900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>394600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>166000</v>
       </c>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1178,66 +1309,84 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>852100</v>
+        <v>169700</v>
       </c>
       <c r="E26" s="3">
-        <v>871600</v>
+        <v>839500</v>
       </c>
       <c r="F26" s="3">
-        <v>498300</v>
+        <v>833200</v>
       </c>
       <c r="G26" s="3">
-        <v>807700</v>
+        <v>852200</v>
       </c>
       <c r="H26" s="3">
-        <v>904300</v>
+        <v>487300</v>
       </c>
       <c r="I26" s="3">
+        <v>789700</v>
+      </c>
+      <c r="J26" s="3">
+        <v>884200</v>
+      </c>
+      <c r="K26" s="3">
         <v>798800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>1971200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>852100</v>
+        <v>169300</v>
       </c>
       <c r="E27" s="3">
-        <v>871400</v>
+        <v>839300</v>
       </c>
       <c r="F27" s="3">
-        <v>498400</v>
+        <v>833100</v>
       </c>
       <c r="G27" s="3">
-        <v>807800</v>
+        <v>852000</v>
       </c>
       <c r="H27" s="3">
-        <v>891100</v>
+        <v>487300</v>
       </c>
       <c r="I27" s="3">
+        <v>789800</v>
+      </c>
+      <c r="J27" s="3">
+        <v>871300</v>
+      </c>
+      <c r="K27" s="3">
         <v>783100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>1929400</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1265,8 +1414,14 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1294,8 +1449,14 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1323,8 +1484,14 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1352,66 +1519,84 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>698800</v>
+        <v>1532400</v>
       </c>
       <c r="E32" s="3">
-        <v>572200</v>
+        <v>682900</v>
       </c>
       <c r="F32" s="3">
-        <v>1105200</v>
+        <v>683300</v>
       </c>
       <c r="G32" s="3">
-        <v>584800</v>
+        <v>559500</v>
       </c>
       <c r="H32" s="3">
-        <v>691600</v>
+        <v>1206300</v>
       </c>
       <c r="I32" s="3">
+        <v>696800</v>
+      </c>
+      <c r="J32" s="3">
+        <v>676300</v>
+      </c>
+      <c r="K32" s="3">
         <v>566000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>2911100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>580200</v>
       </c>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>852100</v>
+        <v>169300</v>
       </c>
       <c r="E33" s="3">
-        <v>871400</v>
+        <v>839300</v>
       </c>
       <c r="F33" s="3">
-        <v>498400</v>
+        <v>833100</v>
       </c>
       <c r="G33" s="3">
-        <v>807800</v>
+        <v>852000</v>
       </c>
       <c r="H33" s="3">
-        <v>891100</v>
+        <v>487300</v>
       </c>
       <c r="I33" s="3">
+        <v>789800</v>
+      </c>
+      <c r="J33" s="3">
+        <v>871300</v>
+      </c>
+      <c r="K33" s="3">
         <v>783100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>1929400</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1439,71 +1624,89 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>852100</v>
+        <v>169300</v>
       </c>
       <c r="E35" s="3">
-        <v>871400</v>
+        <v>839300</v>
       </c>
       <c r="F35" s="3">
-        <v>498400</v>
+        <v>833100</v>
       </c>
       <c r="G35" s="3">
-        <v>807800</v>
+        <v>852000</v>
       </c>
       <c r="H35" s="3">
-        <v>891100</v>
+        <v>487300</v>
       </c>
       <c r="I35" s="3">
+        <v>789800</v>
+      </c>
+      <c r="J35" s="3">
+        <v>871300</v>
+      </c>
+      <c r="K35" s="3">
         <v>783100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>1929400</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>42735</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1515,8 +1718,10 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1528,66 +1733,80 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17798700</v>
+        <v>17841600</v>
       </c>
       <c r="E41" s="3">
-        <v>18940500</v>
+        <v>16147700</v>
       </c>
       <c r="F41" s="3">
-        <v>17836000</v>
+        <v>17403200</v>
       </c>
       <c r="G41" s="3">
-        <v>20677000</v>
+        <v>18519600</v>
       </c>
       <c r="H41" s="3">
-        <v>17249500</v>
+        <v>17439700</v>
       </c>
       <c r="I41" s="3">
+        <v>20217500</v>
+      </c>
+      <c r="J41" s="3">
+        <v>16866200</v>
+      </c>
+      <c r="K41" s="3">
         <v>17040600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>16096400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>15317200</v>
       </c>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>45479700</v>
+        <v>46652200</v>
       </c>
       <c r="E42" s="3">
-        <v>46277200</v>
+        <v>46840400</v>
       </c>
       <c r="F42" s="3">
-        <v>31983800</v>
+        <v>44469000</v>
       </c>
       <c r="G42" s="3">
-        <v>30381200</v>
+        <v>45248800</v>
       </c>
       <c r="H42" s="3">
-        <v>30427300</v>
+        <v>31273000</v>
       </c>
       <c r="I42" s="3">
+        <v>29706100</v>
+      </c>
+      <c r="J42" s="3">
+        <v>29751200</v>
+      </c>
+      <c r="K42" s="3">
         <v>27604900</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>28116300</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>15247300</v>
       </c>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1615,8 +1834,14 @@
       <c r="K43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1644,8 +1869,14 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1673,8 +1904,14 @@
       <c r="K45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1702,95 +1939,119 @@
       <c r="K46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>323000</v>
+        <v>444300</v>
       </c>
       <c r="E47" s="3">
-        <v>319200</v>
+        <v>427700</v>
       </c>
       <c r="F47" s="3">
-        <v>301600</v>
+        <v>315800</v>
       </c>
       <c r="G47" s="3">
-        <v>300800</v>
+        <v>312100</v>
       </c>
       <c r="H47" s="3">
-        <v>312700</v>
+        <v>294900</v>
       </c>
       <c r="I47" s="3">
+        <v>294100</v>
+      </c>
+      <c r="J47" s="3">
+        <v>305700</v>
+      </c>
+      <c r="K47" s="3">
         <v>1622300</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>1593600</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>2735500</v>
       </c>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5253800</v>
+        <v>5624900</v>
       </c>
       <c r="E48" s="3">
-        <v>4517100</v>
+        <v>5201800</v>
       </c>
       <c r="F48" s="3">
-        <v>4545200</v>
+        <v>5137000</v>
       </c>
       <c r="G48" s="3">
-        <v>4549400</v>
+        <v>4416700</v>
       </c>
       <c r="H48" s="3">
-        <v>4663000</v>
+        <v>4444200</v>
       </c>
       <c r="I48" s="3">
+        <v>4448300</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4559300</v>
+      </c>
+      <c r="K48" s="3">
         <v>3854900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3944100</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3170000</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2551200</v>
+        <v>2425100</v>
       </c>
       <c r="E49" s="3">
-        <v>2600400</v>
+        <v>2448200</v>
       </c>
       <c r="F49" s="3">
-        <v>2648800</v>
+        <v>2494500</v>
       </c>
       <c r="G49" s="3">
-        <v>2676000</v>
+        <v>2542600</v>
       </c>
       <c r="H49" s="3">
-        <v>2727300</v>
+        <v>2589900</v>
       </c>
       <c r="I49" s="3">
+        <v>2616500</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2666700</v>
+      </c>
+      <c r="K49" s="3">
         <v>587900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>587100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>432800</v>
       </c>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1818,8 +2079,14 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1847,8 +2114,14 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1856,28 +2129,34 @@
         <v>18600</v>
       </c>
       <c r="E52" s="3">
-        <v>24300</v>
+        <v>15200</v>
       </c>
       <c r="F52" s="3">
-        <v>144400</v>
+        <v>18200</v>
       </c>
       <c r="G52" s="3">
-        <v>2058800</v>
+        <v>23800</v>
       </c>
       <c r="H52" s="3">
-        <v>1752000</v>
+        <v>141100</v>
       </c>
       <c r="I52" s="3">
+        <v>2013100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1713100</v>
+      </c>
+      <c r="K52" s="3">
         <v>103700</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>167200</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1905,37 +2184,49 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>417003700</v>
+        <v>422037700</v>
       </c>
       <c r="E54" s="3">
-        <v>406456100</v>
+        <v>420389800</v>
       </c>
       <c r="F54" s="3">
-        <v>393107000</v>
+        <v>407736900</v>
       </c>
       <c r="G54" s="3">
-        <v>389527600</v>
+        <v>397423700</v>
       </c>
       <c r="H54" s="3">
-        <v>380024500</v>
+        <v>384371300</v>
       </c>
       <c r="I54" s="3">
+        <v>380871500</v>
+      </c>
+      <c r="J54" s="3">
+        <v>371579500</v>
+      </c>
+      <c r="K54" s="3">
         <v>342800500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>338106300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>316656300</v>
       </c>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1947,8 +2238,10 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1960,37 +2253,45 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>17467100</v>
+        <v>13493200</v>
       </c>
       <c r="E57" s="3">
-        <v>15680300</v>
+        <v>20007400</v>
       </c>
       <c r="F57" s="3">
-        <v>12794200</v>
+        <v>17078900</v>
       </c>
       <c r="G57" s="3">
-        <v>13488500</v>
+        <v>15331900</v>
       </c>
       <c r="H57" s="3">
-        <v>15358700</v>
+        <v>12509900</v>
       </c>
       <c r="I57" s="3">
+        <v>13188700</v>
+      </c>
+      <c r="J57" s="3">
+        <v>15017400</v>
+      </c>
+      <c r="K57" s="3">
         <v>13905600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>11945800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>13307600</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2018,37 +2319,49 @@
       <c r="K58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3">
+        <v>0</v>
+      </c>
+      <c r="M58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3479600</v>
+        <v>3899900</v>
       </c>
       <c r="E59" s="3">
-        <v>4189000</v>
+        <v>3716600</v>
       </c>
       <c r="F59" s="3">
-        <v>3350600</v>
+        <v>3402200</v>
       </c>
       <c r="G59" s="3">
-        <v>3143200</v>
+        <v>4095900</v>
       </c>
       <c r="H59" s="3">
-        <v>2799200</v>
+        <v>3276200</v>
       </c>
       <c r="I59" s="3">
+        <v>3073300</v>
+      </c>
+      <c r="J59" s="3">
+        <v>2737000</v>
+      </c>
+      <c r="K59" s="3">
         <v>3537600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>3106500</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2076,66 +2389,84 @@
       <c r="K60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>60958300</v>
+        <v>64458300</v>
       </c>
       <c r="E61" s="3">
-        <v>57741600</v>
+        <v>62367000</v>
       </c>
       <c r="F61" s="3">
-        <v>55654900</v>
+        <v>59603700</v>
       </c>
       <c r="G61" s="3">
-        <v>54030600</v>
+        <v>56458500</v>
       </c>
       <c r="H61" s="3">
-        <v>50676200</v>
+        <v>54418100</v>
       </c>
       <c r="I61" s="3">
+        <v>52829900</v>
+      </c>
+      <c r="J61" s="3">
+        <v>49550000</v>
+      </c>
+      <c r="K61" s="3">
         <v>44754500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>44530100</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>41852900</v>
       </c>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1130300</v>
+        <v>1126900</v>
       </c>
       <c r="E62" s="3">
-        <v>1094800</v>
+        <v>1243600</v>
       </c>
       <c r="F62" s="3">
-        <v>1130200</v>
+        <v>1105200</v>
       </c>
       <c r="G62" s="3">
-        <v>3023800</v>
+        <v>1070400</v>
       </c>
       <c r="H62" s="3">
-        <v>2765500</v>
+        <v>1105100</v>
       </c>
       <c r="I62" s="3">
+        <v>2956600</v>
+      </c>
+      <c r="J62" s="3">
+        <v>2704100</v>
+      </c>
+      <c r="K62" s="3">
         <v>612500</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>663700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>846700</v>
       </c>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2163,8 +2494,14 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2192,8 +2529,14 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2221,37 +2564,49 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>385875200</v>
+        <v>390618300</v>
       </c>
       <c r="E66" s="3">
-        <v>376194200</v>
+        <v>389078800</v>
       </c>
       <c r="F66" s="3">
-        <v>362472200</v>
+        <v>377300200</v>
       </c>
       <c r="G66" s="3">
-        <v>359179000</v>
+        <v>367834300</v>
       </c>
       <c r="H66" s="3">
-        <v>350710400</v>
+        <v>354417300</v>
       </c>
       <c r="I66" s="3">
+        <v>351197200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>342916800</v>
+      </c>
+      <c r="K66" s="3">
         <v>314608200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>310208100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>289942200</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2263,8 +2618,10 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2292,8 +2649,14 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2321,8 +2684,14 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2350,8 +2719,14 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2379,37 +2754,49 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>14508300</v>
+        <v>15208500</v>
       </c>
       <c r="E72" s="3">
-        <v>13656200</v>
+        <v>15025200</v>
       </c>
       <c r="F72" s="3">
-        <v>13539800</v>
+        <v>14185900</v>
       </c>
       <c r="G72" s="3">
-        <v>13043200</v>
+        <v>13352800</v>
       </c>
       <c r="H72" s="3">
-        <v>12235400</v>
+        <v>13238900</v>
       </c>
       <c r="I72" s="3">
+        <v>12753300</v>
+      </c>
+      <c r="J72" s="3">
+        <v>11963500</v>
+      </c>
+      <c r="K72" s="3">
         <v>11341200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>11006300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>10597800</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2437,8 +2824,14 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2466,8 +2859,14 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2495,37 +2894,49 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31128400</v>
+        <v>31419400</v>
       </c>
       <c r="E76" s="3">
-        <v>30261900</v>
+        <v>31311000</v>
       </c>
       <c r="F76" s="3">
-        <v>30634800</v>
+        <v>30436700</v>
       </c>
       <c r="G76" s="3">
-        <v>30348700</v>
+        <v>29589400</v>
       </c>
       <c r="H76" s="3">
-        <v>29314100</v>
+        <v>29954000</v>
       </c>
       <c r="I76" s="3">
+        <v>29674300</v>
+      </c>
+      <c r="J76" s="3">
+        <v>28662700</v>
+      </c>
+      <c r="K76" s="3">
         <v>28192300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>27898200</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>26714100</v>
       </c>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2553,71 +2964,89 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="F80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>42735</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>852100</v>
+        <v>169300</v>
       </c>
       <c r="E81" s="3">
-        <v>871400</v>
+        <v>839300</v>
       </c>
       <c r="F81" s="3">
-        <v>498400</v>
+        <v>833100</v>
       </c>
       <c r="G81" s="3">
-        <v>807800</v>
+        <v>852000</v>
       </c>
       <c r="H81" s="3">
-        <v>891100</v>
+        <v>487300</v>
       </c>
       <c r="I81" s="3">
+        <v>789800</v>
+      </c>
+      <c r="J81" s="3">
+        <v>871300</v>
+      </c>
+      <c r="K81" s="3">
         <v>783100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>1929400</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2629,37 +3058,45 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>131100</v>
+        <v>158800</v>
       </c>
       <c r="E83" s="3">
-        <v>128000</v>
+        <v>136700</v>
       </c>
       <c r="F83" s="3">
-        <v>153300</v>
+        <v>128200</v>
       </c>
       <c r="G83" s="3">
-        <v>139400</v>
+        <v>125200</v>
       </c>
       <c r="H83" s="3">
-        <v>135700</v>
+        <v>149900</v>
       </c>
       <c r="I83" s="3">
+        <v>136300</v>
+      </c>
+      <c r="J83" s="3">
+        <v>132700</v>
+      </c>
+      <c r="K83" s="3">
         <v>67000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>260500</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2687,8 +3124,14 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2716,8 +3159,14 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2745,8 +3194,14 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2774,8 +3229,14 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2803,37 +3264,49 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-2200000</v>
+        <v>797400</v>
       </c>
       <c r="E89" s="3">
-        <v>-5775100</v>
+        <v>-882200</v>
       </c>
       <c r="F89" s="3">
-        <v>1690600</v>
+        <v>-2151100</v>
       </c>
       <c r="G89" s="3">
-        <v>-1555800</v>
+        <v>-5646700</v>
       </c>
       <c r="H89" s="3">
-        <v>-3423300</v>
+        <v>1653000</v>
       </c>
       <c r="I89" s="3">
+        <v>-1521200</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-3347200</v>
+      </c>
+      <c r="K89" s="3">
         <v>-1063900</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>1012500</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-288400</v>
       </c>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2845,37 +3318,45 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-118000</v>
+        <v>-176800</v>
       </c>
       <c r="E91" s="3">
-        <v>-31400</v>
+        <v>-131900</v>
       </c>
       <c r="F91" s="3">
-        <v>-135700</v>
+        <v>-89000</v>
       </c>
       <c r="G91" s="3">
-        <v>-104400</v>
+        <v>-300</v>
       </c>
       <c r="H91" s="3">
-        <v>-83300</v>
+        <v>-96500</v>
       </c>
       <c r="I91" s="3">
+        <v>-83900</v>
+      </c>
+      <c r="J91" s="3">
+        <v>-56500</v>
+      </c>
+      <c r="K91" s="3">
         <v>-45900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-457900</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-124600</v>
       </c>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2903,8 +3384,14 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2932,37 +3419,49 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-1189600</v>
+        <v>-3703400</v>
       </c>
       <c r="E94" s="3">
-        <v>-58900</v>
+        <v>981400</v>
       </c>
       <c r="F94" s="3">
-        <v>-3303500</v>
+        <v>-1163100</v>
       </c>
       <c r="G94" s="3">
-        <v>-2360000</v>
+        <v>-57600</v>
       </c>
       <c r="H94" s="3">
-        <v>-1921300</v>
+        <v>-3230100</v>
       </c>
       <c r="I94" s="3">
+        <v>-2307500</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-1878600</v>
+      </c>
+      <c r="K94" s="3">
         <v>-271700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-3994700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-1862000</v>
       </c>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2974,8 +3473,10 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2998,13 +3499,19 @@
         <v>0</v>
       </c>
       <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3">
         <v>-340800</v>
       </c>
-      <c r="K96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3032,8 +3539,14 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3061,8 +3574,14 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3090,91 +3609,115 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3168800</v>
+        <v>3291600</v>
       </c>
       <c r="E100" s="3">
-        <v>3714800</v>
+        <v>312300</v>
       </c>
       <c r="F100" s="3">
-        <v>1879300</v>
+        <v>3098400</v>
       </c>
       <c r="G100" s="3">
-        <v>5381500</v>
+        <v>3632200</v>
       </c>
       <c r="H100" s="3">
-        <v>5547700</v>
+        <v>1837500</v>
       </c>
       <c r="I100" s="3">
+        <v>5261900</v>
+      </c>
+      <c r="J100" s="3">
+        <v>5424500</v>
+      </c>
+      <c r="K100" s="3">
         <v>411300</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2863200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>2697200</v>
       </c>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>17700</v>
+        <v>-36100</v>
       </c>
       <c r="E101" s="3">
-        <v>4100</v>
+        <v>-45100</v>
       </c>
       <c r="F101" s="3">
-        <v>-65100</v>
+        <v>17300</v>
       </c>
       <c r="G101" s="3">
-        <v>-73500</v>
+        <v>4000</v>
       </c>
       <c r="H101" s="3">
-        <v>62200</v>
+        <v>-63600</v>
       </c>
       <c r="I101" s="3">
+        <v>-71800</v>
+      </c>
+      <c r="J101" s="3">
+        <v>60800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-43500</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>80200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>-203000</v>
+        <v>349500</v>
       </c>
       <c r="E102" s="3">
-        <v>-2115100</v>
+        <v>366400</v>
       </c>
       <c r="F102" s="3">
-        <v>201300</v>
+        <v>-198500</v>
       </c>
       <c r="G102" s="3">
-        <v>1392300</v>
+        <v>-2068100</v>
       </c>
       <c r="H102" s="3">
-        <v>265300</v>
+        <v>196800</v>
       </c>
       <c r="I102" s="3">
+        <v>1361300</v>
+      </c>
+      <c r="J102" s="3">
+        <v>259500</v>
+      </c>
+      <c r="K102" s="3">
         <v>-967800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-38800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>530100</v>
       </c>
     </row>

--- a/Financials/Quarterly/KB_QTR_FIN.xlsx
+++ b/Financials/Quarterly/KB_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA8609E0-935A-4D50-8C77-B6C9C271F017}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="KB" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="92">
   <si>
     <t>KB</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,102 +654,120 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="4.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="13" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="16" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G7" s="2">
         <v>43465</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>43373</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>42735</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
-        <v>3222100</v>
+        <v>3084100</v>
       </c>
       <c r="E8" s="3">
-        <v>3093300</v>
+        <v>3102900</v>
       </c>
       <c r="F8" s="3">
-        <v>2959700</v>
+        <v>3063000</v>
       </c>
       <c r="G8" s="3">
-        <v>2811400</v>
+        <v>3075700</v>
       </c>
       <c r="H8" s="3">
+        <v>2952700</v>
+      </c>
+      <c r="I8" s="3">
+        <v>2825100</v>
+      </c>
+      <c r="J8" s="3">
+        <v>2683600</v>
+      </c>
+      <c r="K8" s="3">
         <v>2768900</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>2712100</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>2608400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>2453800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="O8" s="3">
         <v>9019700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="P8" s="3">
         <v>2233400</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
@@ -818,8 +801,17 @@
       <c r="M9" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -853,8 +845,17 @@
       <c r="M10" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -868,8 +869,11 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -903,8 +907,17 @@
       <c r="M12" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -938,8 +951,17 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -973,43 +995,61 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>-113500</v>
+        <v>-164000</v>
       </c>
       <c r="E15" s="3">
-        <v>-89900</v>
+        <v>-156000</v>
       </c>
       <c r="F15" s="3">
-        <v>-80300</v>
+        <v>-149000</v>
       </c>
       <c r="G15" s="3">
-        <v>-76100</v>
+        <v>-108300</v>
       </c>
       <c r="H15" s="3">
+        <v>-85800</v>
+      </c>
+      <c r="I15" s="3">
+        <v>-76600</v>
+      </c>
+      <c r="J15" s="3">
+        <v>-72600</v>
+      </c>
+      <c r="K15" s="3">
         <v>-99100</v>
       </c>
-      <c r="I15" s="3">
+      <c r="L15" s="3">
         <v>-83600</v>
       </c>
-      <c r="J15" s="3">
+      <c r="M15" s="3">
         <v>-77900</v>
       </c>
-      <c r="K15" s="3">
+      <c r="N15" s="3">
         <v>-66900</v>
       </c>
-      <c r="L15" s="3">
+      <c r="O15" s="3">
         <v>-259800</v>
       </c>
-      <c r="M15" s="3">
+      <c r="P15" s="3">
         <v>-63200</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1020,78 +1060,99 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>1402700</v>
+        <v>1275400</v>
       </c>
       <c r="E17" s="3">
-        <v>1241000</v>
+        <v>1259100</v>
       </c>
       <c r="F17" s="3">
-        <v>1129600</v>
+        <v>1332300</v>
       </c>
       <c r="G17" s="3">
-        <v>1069700</v>
+        <v>1338900</v>
       </c>
       <c r="H17" s="3">
+        <v>1184600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1078300</v>
+      </c>
+      <c r="J17" s="3">
+        <v>1021000</v>
+      </c>
+      <c r="K17" s="3">
         <v>923200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>959800</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>834800</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>1019100</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>3742800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>967500</v>
       </c>
     </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>1819400</v>
+        <v>1808800</v>
       </c>
       <c r="E18" s="3">
-        <v>1852300</v>
+        <v>1843900</v>
       </c>
       <c r="F18" s="3">
-        <v>1830000</v>
+        <v>1730700</v>
       </c>
       <c r="G18" s="3">
-        <v>1741700</v>
+        <v>1736700</v>
       </c>
       <c r="H18" s="3">
+        <v>1768100</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1746800</v>
+      </c>
+      <c r="J18" s="3">
+        <v>1662600</v>
+      </c>
+      <c r="K18" s="3">
         <v>1845800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>1752400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>1773600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>1434700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>5276900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>1265900</v>
       </c>
     </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1105,78 +1166,99 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-1532400</v>
+        <v>-750200</v>
       </c>
       <c r="E20" s="3">
-        <v>-682900</v>
+        <v>-702500</v>
       </c>
       <c r="F20" s="3">
-        <v>-683300</v>
+        <v>-751300</v>
       </c>
       <c r="G20" s="3">
-        <v>-559500</v>
+        <v>-1462800</v>
       </c>
       <c r="H20" s="3">
+        <v>-651800</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-652200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>-534100</v>
+      </c>
+      <c r="K20" s="3">
         <v>-1206300</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>-696800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="M20" s="3">
         <v>-676300</v>
       </c>
-      <c r="K20" s="3">
+      <c r="N20" s="3">
         <v>-566000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="O20" s="3">
         <v>-2911100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="P20" s="3">
         <v>-580200</v>
       </c>
     </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>445800</v>
+        <v>1262300</v>
       </c>
       <c r="E21" s="3">
-        <v>1306100</v>
+        <v>1338500</v>
       </c>
       <c r="F21" s="3">
-        <v>1274900</v>
+        <v>1170300</v>
       </c>
       <c r="G21" s="3">
-        <v>1307400</v>
+        <v>425500</v>
       </c>
       <c r="H21" s="3">
+        <v>1246700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>1217000</v>
+      </c>
+      <c r="J21" s="3">
+        <v>1248000</v>
+      </c>
+      <c r="K21" s="3">
         <v>789300</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>1191800</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>1230000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>935700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>2626300</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>749100</v>
       </c>
     </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1210,78 +1292,105 @@
       <c r="M22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>287000</v>
+        <v>1058500</v>
       </c>
       <c r="E23" s="3">
-        <v>1169400</v>
+        <v>1141400</v>
       </c>
       <c r="F23" s="3">
-        <v>1146700</v>
+        <v>979400</v>
       </c>
       <c r="G23" s="3">
-        <v>1182200</v>
+        <v>274000</v>
       </c>
       <c r="H23" s="3">
+        <v>1116300</v>
+      </c>
+      <c r="I23" s="3">
+        <v>1094600</v>
+      </c>
+      <c r="J23" s="3">
+        <v>1128500</v>
+      </c>
+      <c r="K23" s="3">
         <v>639400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>1055600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>1097400</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>868700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>2365800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>685700</v>
       </c>
     </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>117300</v>
+        <v>268300</v>
       </c>
       <c r="E24" s="3">
-        <v>329900</v>
+        <v>308600</v>
       </c>
       <c r="F24" s="3">
-        <v>313600</v>
+        <v>268800</v>
       </c>
       <c r="G24" s="3">
-        <v>330000</v>
+        <v>112000</v>
       </c>
       <c r="H24" s="3">
+        <v>314900</v>
+      </c>
+      <c r="I24" s="3">
+        <v>299300</v>
+      </c>
+      <c r="J24" s="3">
+        <v>315000</v>
+      </c>
+      <c r="K24" s="3">
         <v>152200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="L24" s="3">
         <v>265900</v>
       </c>
-      <c r="J24" s="3">
+      <c r="M24" s="3">
         <v>213200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="N24" s="3">
         <v>69900</v>
       </c>
-      <c r="L24" s="3">
+      <c r="O24" s="3">
         <v>394600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="P24" s="3">
         <v>166000</v>
       </c>
     </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1315,78 +1424,105 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>169700</v>
+        <v>790200</v>
       </c>
       <c r="E26" s="3">
-        <v>839500</v>
+        <v>832800</v>
       </c>
       <c r="F26" s="3">
-        <v>833200</v>
+        <v>710600</v>
       </c>
       <c r="G26" s="3">
-        <v>852200</v>
+        <v>161900</v>
       </c>
       <c r="H26" s="3">
+        <v>801300</v>
+      </c>
+      <c r="I26" s="3">
+        <v>795300</v>
+      </c>
+      <c r="J26" s="3">
+        <v>813400</v>
+      </c>
+      <c r="K26" s="3">
         <v>487300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>789700</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>884200</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>798800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>1971200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>519700</v>
       </c>
     </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>169300</v>
+        <v>787100</v>
       </c>
       <c r="E27" s="3">
-        <v>839300</v>
+        <v>832600</v>
       </c>
       <c r="F27" s="3">
-        <v>833100</v>
+        <v>710300</v>
       </c>
       <c r="G27" s="3">
-        <v>852000</v>
+        <v>161600</v>
       </c>
       <c r="H27" s="3">
+        <v>801200</v>
+      </c>
+      <c r="I27" s="3">
+        <v>795300</v>
+      </c>
+      <c r="J27" s="3">
+        <v>813300</v>
+      </c>
+      <c r="K27" s="3">
         <v>487300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>789800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>871300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>783100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>1929400</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1420,8 +1556,17 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1455,8 +1600,17 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1490,8 +1644,17 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1525,78 +1688,105 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>1532400</v>
+        <v>750200</v>
       </c>
       <c r="E32" s="3">
-        <v>682900</v>
+        <v>702500</v>
       </c>
       <c r="F32" s="3">
-        <v>683300</v>
+        <v>751300</v>
       </c>
       <c r="G32" s="3">
-        <v>559500</v>
+        <v>1462800</v>
       </c>
       <c r="H32" s="3">
+        <v>651800</v>
+      </c>
+      <c r="I32" s="3">
+        <v>652200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>534100</v>
+      </c>
+      <c r="K32" s="3">
         <v>1206300</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>696800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="M32" s="3">
         <v>676300</v>
       </c>
-      <c r="K32" s="3">
+      <c r="N32" s="3">
         <v>566000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="O32" s="3">
         <v>2911100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="P32" s="3">
         <v>580200</v>
       </c>
     </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>169300</v>
+        <v>787100</v>
       </c>
       <c r="E33" s="3">
-        <v>839300</v>
+        <v>832600</v>
       </c>
       <c r="F33" s="3">
-        <v>833100</v>
+        <v>710300</v>
       </c>
       <c r="G33" s="3">
-        <v>852000</v>
+        <v>161600</v>
       </c>
       <c r="H33" s="3">
+        <v>801200</v>
+      </c>
+      <c r="I33" s="3">
+        <v>795300</v>
+      </c>
+      <c r="J33" s="3">
+        <v>813300</v>
+      </c>
+      <c r="K33" s="3">
         <v>487300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>789800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>871300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>783100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>1929400</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1630,83 +1820,110 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>169300</v>
+        <v>787100</v>
       </c>
       <c r="E35" s="3">
-        <v>839300</v>
+        <v>832600</v>
       </c>
       <c r="F35" s="3">
-        <v>833100</v>
+        <v>710300</v>
       </c>
       <c r="G35" s="3">
-        <v>852000</v>
+        <v>161600</v>
       </c>
       <c r="H35" s="3">
+        <v>801200</v>
+      </c>
+      <c r="I35" s="3">
+        <v>795300</v>
+      </c>
+      <c r="J35" s="3">
+        <v>813300</v>
+      </c>
+      <c r="K35" s="3">
         <v>487300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>789800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>871300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>783100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>1929400</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G38" s="2">
         <v>43465</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>43373</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>42735</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1720,8 +1937,11 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1735,78 +1955,99 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>17841600</v>
+        <v>18483800</v>
       </c>
       <c r="E41" s="3">
-        <v>16147700</v>
+        <v>18917900</v>
       </c>
       <c r="F41" s="3">
-        <v>17403200</v>
+        <v>16114800</v>
       </c>
       <c r="G41" s="3">
-        <v>18519600</v>
+        <v>17030600</v>
       </c>
       <c r="H41" s="3">
+        <v>15413700</v>
+      </c>
+      <c r="I41" s="3">
+        <v>16612200</v>
+      </c>
+      <c r="J41" s="3">
+        <v>17677800</v>
+      </c>
+      <c r="K41" s="3">
         <v>17439700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>20217500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>16866200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>17040600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>16096400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>15317200</v>
       </c>
     </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>46652200</v>
+        <v>46885200</v>
       </c>
       <c r="E42" s="3">
-        <v>46840400</v>
+        <v>43346800</v>
       </c>
       <c r="F42" s="3">
-        <v>44469000</v>
+        <v>43519400</v>
       </c>
       <c r="G42" s="3">
-        <v>45248800</v>
+        <v>44531600</v>
       </c>
       <c r="H42" s="3">
+        <v>44711300</v>
+      </c>
+      <c r="I42" s="3">
+        <v>42447700</v>
+      </c>
+      <c r="J42" s="3">
+        <v>43192000</v>
+      </c>
+      <c r="K42" s="3">
         <v>31273000</v>
       </c>
-      <c r="I42" s="3">
+      <c r="L42" s="3">
         <v>29706100</v>
       </c>
-      <c r="J42" s="3">
+      <c r="M42" s="3">
         <v>29751200</v>
       </c>
-      <c r="K42" s="3">
+      <c r="N42" s="3">
         <v>27604900</v>
       </c>
-      <c r="L42" s="3">
+      <c r="O42" s="3">
         <v>28116300</v>
       </c>
-      <c r="M42" s="3">
+      <c r="P42" s="3">
         <v>15247300</v>
       </c>
     </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1840,8 +2081,17 @@
       <c r="M43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N43" s="3">
+        <v>0</v>
+      </c>
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1875,8 +2125,17 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1910,8 +2169,17 @@
       <c r="M45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1945,113 +2213,149 @@
       <c r="M46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>444300</v>
+        <v>449100</v>
       </c>
       <c r="E47" s="3">
-        <v>427700</v>
+        <v>442600</v>
       </c>
       <c r="F47" s="3">
-        <v>315800</v>
+        <v>426400</v>
       </c>
       <c r="G47" s="3">
-        <v>312100</v>
+        <v>424100</v>
       </c>
       <c r="H47" s="3">
+        <v>408200</v>
+      </c>
+      <c r="I47" s="3">
+        <v>301400</v>
+      </c>
+      <c r="J47" s="3">
+        <v>298000</v>
+      </c>
+      <c r="K47" s="3">
         <v>294900</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>294100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>305700</v>
       </c>
-      <c r="K47" s="3">
+      <c r="N47" s="3">
         <v>1622300</v>
       </c>
-      <c r="L47" s="3">
+      <c r="O47" s="3">
         <v>1593600</v>
       </c>
-      <c r="M47" s="3">
+      <c r="P47" s="3">
         <v>2735500</v>
       </c>
     </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>5624900</v>
+        <v>6346400</v>
       </c>
       <c r="E48" s="3">
-        <v>5201800</v>
+        <v>6299100</v>
       </c>
       <c r="F48" s="3">
-        <v>5137000</v>
+        <v>5872100</v>
       </c>
       <c r="G48" s="3">
-        <v>4416700</v>
+        <v>5369200</v>
       </c>
       <c r="H48" s="3">
+        <v>4965300</v>
+      </c>
+      <c r="I48" s="3">
+        <v>4903500</v>
+      </c>
+      <c r="J48" s="3">
+        <v>4215900</v>
+      </c>
+      <c r="K48" s="3">
         <v>4444200</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>4448300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>4559300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>3854900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>3944100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>3170000</v>
       </c>
     </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>2425100</v>
+        <v>2228900</v>
       </c>
       <c r="E49" s="3">
-        <v>2448200</v>
+        <v>2279500</v>
       </c>
       <c r="F49" s="3">
-        <v>2494500</v>
+        <v>2323800</v>
       </c>
       <c r="G49" s="3">
-        <v>2542600</v>
+        <v>2314900</v>
       </c>
       <c r="H49" s="3">
+        <v>2336900</v>
+      </c>
+      <c r="I49" s="3">
+        <v>2381100</v>
+      </c>
+      <c r="J49" s="3">
+        <v>2427000</v>
+      </c>
+      <c r="K49" s="3">
         <v>2589900</v>
       </c>
-      <c r="I49" s="3">
+      <c r="L49" s="3">
         <v>2616500</v>
       </c>
-      <c r="J49" s="3">
+      <c r="M49" s="3">
         <v>2666700</v>
       </c>
-      <c r="K49" s="3">
+      <c r="N49" s="3">
         <v>587900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="O49" s="3">
         <v>587100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="P49" s="3">
         <v>432800</v>
       </c>
     </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2085,8 +2389,17 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2120,43 +2433,61 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>18600</v>
+        <v>10700</v>
       </c>
       <c r="E52" s="3">
-        <v>15200</v>
+        <v>14600</v>
       </c>
       <c r="F52" s="3">
-        <v>18200</v>
+        <v>16500</v>
       </c>
       <c r="G52" s="3">
-        <v>23800</v>
+        <v>17700</v>
       </c>
       <c r="H52" s="3">
+        <v>14500</v>
+      </c>
+      <c r="I52" s="3">
+        <v>17400</v>
+      </c>
+      <c r="J52" s="3">
+        <v>22700</v>
+      </c>
+      <c r="K52" s="3">
         <v>141100</v>
       </c>
-      <c r="I52" s="3">
+      <c r="L52" s="3">
         <v>2013100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="M52" s="3">
         <v>1713100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="N52" s="3">
         <v>103700</v>
       </c>
-      <c r="L52" s="3">
+      <c r="O52" s="3">
         <v>167200</v>
       </c>
-      <c r="M52" s="3">
+      <c r="P52" s="3">
         <v>47000</v>
       </c>
     </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2190,43 +2521,61 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>422037700</v>
+        <v>425204100</v>
       </c>
       <c r="E54" s="3">
-        <v>420389800</v>
+        <v>418470400</v>
       </c>
       <c r="F54" s="3">
-        <v>407736900</v>
+        <v>412187500</v>
       </c>
       <c r="G54" s="3">
-        <v>397423700</v>
+        <v>402854200</v>
       </c>
       <c r="H54" s="3">
+        <v>401281100</v>
+      </c>
+      <c r="I54" s="3">
+        <v>389203400</v>
+      </c>
+      <c r="J54" s="3">
+        <v>379359000</v>
+      </c>
+      <c r="K54" s="3">
         <v>384371300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>380871500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>371579500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>342800500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>338106300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>316656300</v>
       </c>
     </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2240,8 +2589,11 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2255,43 +2607,55 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>13493200</v>
+        <v>19128600</v>
       </c>
       <c r="E57" s="3">
-        <v>20007400</v>
+        <v>18803400</v>
       </c>
       <c r="F57" s="3">
-        <v>17078900</v>
+        <v>17890500</v>
       </c>
       <c r="G57" s="3">
-        <v>15331900</v>
+        <v>12879900</v>
       </c>
       <c r="H57" s="3">
+        <v>19098000</v>
+      </c>
+      <c r="I57" s="3">
+        <v>16302600</v>
+      </c>
+      <c r="J57" s="3">
+        <v>14635000</v>
+      </c>
+      <c r="K57" s="3">
         <v>12509900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>13188700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>15017400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="N57" s="3">
         <v>13905600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="O57" s="3">
         <v>11945800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="P57" s="3">
         <v>13307600</v>
       </c>
     </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2325,43 +2689,61 @@
       <c r="M58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N58" s="3">
+        <v>0</v>
+      </c>
+      <c r="O58" s="3">
+        <v>0</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3899900</v>
+        <v>3578800</v>
       </c>
       <c r="E59" s="3">
-        <v>3716600</v>
+        <v>3442300</v>
       </c>
       <c r="F59" s="3">
-        <v>3402200</v>
+        <v>4261800</v>
       </c>
       <c r="G59" s="3">
-        <v>4095900</v>
+        <v>3722600</v>
       </c>
       <c r="H59" s="3">
+        <v>3547700</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3247600</v>
+      </c>
+      <c r="J59" s="3">
+        <v>3909800</v>
+      </c>
+      <c r="K59" s="3">
         <v>3276200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>3073300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>2737000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>3537600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>3106500</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>3121300</v>
       </c>
     </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -2395,78 +2777,105 @@
       <c r="M60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>64458300</v>
+        <v>61717100</v>
       </c>
       <c r="E61" s="3">
-        <v>62367000</v>
+        <v>60854900</v>
       </c>
       <c r="F61" s="3">
-        <v>59603700</v>
+        <v>60125400</v>
       </c>
       <c r="G61" s="3">
-        <v>56458500</v>
+        <v>61528300</v>
       </c>
       <c r="H61" s="3">
+        <v>59532200</v>
+      </c>
+      <c r="I61" s="3">
+        <v>56894400</v>
+      </c>
+      <c r="J61" s="3">
+        <v>53892200</v>
+      </c>
+      <c r="K61" s="3">
         <v>54418100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="L61" s="3">
         <v>52829900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="M61" s="3">
         <v>49550000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="N61" s="3">
         <v>44754500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="O61" s="3">
         <v>44530100</v>
       </c>
-      <c r="M61" s="3">
+      <c r="P61" s="3">
         <v>41852900</v>
       </c>
     </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1126900</v>
+        <v>1486000</v>
       </c>
       <c r="E62" s="3">
-        <v>1243600</v>
+        <v>1438100</v>
       </c>
       <c r="F62" s="3">
-        <v>1105200</v>
+        <v>1349100</v>
       </c>
       <c r="G62" s="3">
-        <v>1070400</v>
+        <v>1075700</v>
       </c>
       <c r="H62" s="3">
+        <v>1187100</v>
+      </c>
+      <c r="I62" s="3">
+        <v>1055000</v>
+      </c>
+      <c r="J62" s="3">
+        <v>1021800</v>
+      </c>
+      <c r="K62" s="3">
         <v>1105100</v>
       </c>
-      <c r="I62" s="3">
+      <c r="L62" s="3">
         <v>2956600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="M62" s="3">
         <v>2704100</v>
       </c>
-      <c r="K62" s="3">
+      <c r="N62" s="3">
         <v>612500</v>
       </c>
-      <c r="L62" s="3">
+      <c r="O62" s="3">
         <v>663700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="P62" s="3">
         <v>846700</v>
       </c>
     </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2500,8 +2909,17 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2535,8 +2953,17 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2570,43 +2997,61 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>390618300</v>
+        <v>393154000</v>
       </c>
       <c r="E66" s="3">
-        <v>389078800</v>
+        <v>387229000</v>
       </c>
       <c r="F66" s="3">
-        <v>377300200</v>
+        <v>382100600</v>
       </c>
       <c r="G66" s="3">
-        <v>367834300</v>
+        <v>372862900</v>
       </c>
       <c r="H66" s="3">
+        <v>371393400</v>
+      </c>
+      <c r="I66" s="3">
+        <v>360150200</v>
+      </c>
+      <c r="J66" s="3">
+        <v>351114600</v>
+      </c>
+      <c r="K66" s="3">
         <v>354417300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>351197200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>342916800</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>314608200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>310208100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>289942200</v>
       </c>
     </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2620,8 +3065,11 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2655,8 +3103,17 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2690,8 +3147,17 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2725,8 +3191,17 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2760,43 +3235,61 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>15208500</v>
+        <v>16193700</v>
       </c>
       <c r="E72" s="3">
-        <v>15025200</v>
+        <v>15404800</v>
       </c>
       <c r="F72" s="3">
-        <v>14185900</v>
+        <v>14574000</v>
       </c>
       <c r="G72" s="3">
-        <v>13352800</v>
+        <v>14517300</v>
       </c>
       <c r="H72" s="3">
+        <v>14342300</v>
+      </c>
+      <c r="I72" s="3">
+        <v>13541100</v>
+      </c>
+      <c r="J72" s="3">
+        <v>12745800</v>
+      </c>
+      <c r="K72" s="3">
         <v>13238900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>12753300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>11963500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>11341200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>11006300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>10597800</v>
       </c>
     </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2830,8 +3323,17 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2865,8 +3367,17 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2900,43 +3411,61 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>31419400</v>
+        <v>32050100</v>
       </c>
       <c r="E76" s="3">
-        <v>31311000</v>
+        <v>31241500</v>
       </c>
       <c r="F76" s="3">
-        <v>30436700</v>
+        <v>30086900</v>
       </c>
       <c r="G76" s="3">
-        <v>29589400</v>
+        <v>29991300</v>
       </c>
       <c r="H76" s="3">
+        <v>29887800</v>
+      </c>
+      <c r="I76" s="3">
+        <v>29053200</v>
+      </c>
+      <c r="J76" s="3">
+        <v>28244400</v>
+      </c>
+      <c r="K76" s="3">
         <v>29954000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>29674300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>28662700</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>28192300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>27898200</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>26714100</v>
       </c>
     </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2970,83 +3499,110 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43738</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43646</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43555</v>
+      </c>
+      <c r="G80" s="2">
         <v>43465</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>43373</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>42735</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>169300</v>
+        <v>787100</v>
       </c>
       <c r="E81" s="3">
-        <v>839300</v>
+        <v>832600</v>
       </c>
       <c r="F81" s="3">
-        <v>833100</v>
+        <v>710300</v>
       </c>
       <c r="G81" s="3">
-        <v>852000</v>
+        <v>161600</v>
       </c>
       <c r="H81" s="3">
+        <v>801200</v>
+      </c>
+      <c r="I81" s="3">
+        <v>795300</v>
+      </c>
+      <c r="J81" s="3">
+        <v>813300</v>
+      </c>
+      <c r="K81" s="3">
         <v>487300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>789800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>871300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>783100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>1929400</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>508000</v>
       </c>
     </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3060,43 +3616,55 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>158800</v>
+        <v>203800</v>
       </c>
       <c r="E83" s="3">
-        <v>136700</v>
+        <v>197100</v>
       </c>
       <c r="F83" s="3">
-        <v>128200</v>
+        <v>190900</v>
       </c>
       <c r="G83" s="3">
-        <v>125200</v>
+        <v>151600</v>
       </c>
       <c r="H83" s="3">
+        <v>130400</v>
+      </c>
+      <c r="I83" s="3">
+        <v>122400</v>
+      </c>
+      <c r="J83" s="3">
+        <v>119500</v>
+      </c>
+      <c r="K83" s="3">
         <v>149900</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>136300</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>132700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>67000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>260500</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>63400</v>
       </c>
     </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3130,8 +3698,17 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3165,8 +3742,17 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3200,8 +3786,17 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3235,8 +3830,17 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3270,43 +3874,61 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>797400</v>
+        <v>232100</v>
       </c>
       <c r="E89" s="3">
-        <v>-882200</v>
+        <v>2745900</v>
       </c>
       <c r="F89" s="3">
-        <v>-2151100</v>
+        <v>5091400</v>
       </c>
       <c r="G89" s="3">
-        <v>-5646700</v>
+        <v>761100</v>
       </c>
       <c r="H89" s="3">
+        <v>-842100</v>
+      </c>
+      <c r="I89" s="3">
+        <v>-2053300</v>
+      </c>
+      <c r="J89" s="3">
+        <v>-5390100</v>
+      </c>
+      <c r="K89" s="3">
         <v>1653000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-1521200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-3347200</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-1063900</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>1012500</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-288400</v>
       </c>
     </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3320,43 +3942,55 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-176800</v>
+        <v>-92400</v>
       </c>
       <c r="E91" s="3">
-        <v>-131900</v>
+        <v>-118200</v>
       </c>
       <c r="F91" s="3">
-        <v>-89000</v>
+        <v>-72200</v>
       </c>
       <c r="G91" s="3">
+        <v>-168700</v>
+      </c>
+      <c r="H91" s="3">
+        <v>-125900</v>
+      </c>
+      <c r="I91" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-300</v>
       </c>
-      <c r="H91" s="3">
+      <c r="K91" s="3">
         <v>-96500</v>
       </c>
-      <c r="I91" s="3">
+      <c r="L91" s="3">
         <v>-83900</v>
       </c>
-      <c r="J91" s="3">
+      <c r="M91" s="3">
         <v>-56500</v>
       </c>
-      <c r="K91" s="3">
+      <c r="N91" s="3">
         <v>-45900</v>
       </c>
-      <c r="L91" s="3">
+      <c r="O91" s="3">
         <v>-457900</v>
       </c>
-      <c r="M91" s="3">
+      <c r="P91" s="3">
         <v>-124600</v>
       </c>
     </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3390,8 +4024,17 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3425,43 +4068,61 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-3703400</v>
+        <v>-3734400</v>
       </c>
       <c r="E94" s="3">
-        <v>981400</v>
+        <v>-413200</v>
       </c>
       <c r="F94" s="3">
-        <v>-1163100</v>
+        <v>-2559900</v>
       </c>
       <c r="G94" s="3">
-        <v>-57600</v>
+        <v>-3535000</v>
       </c>
       <c r="H94" s="3">
+        <v>936800</v>
+      </c>
+      <c r="I94" s="3">
+        <v>-1110300</v>
+      </c>
+      <c r="J94" s="3">
+        <v>-55000</v>
+      </c>
+      <c r="K94" s="3">
         <v>-3230100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-2307500</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-1878600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-271700</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-3994700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-1862000</v>
       </c>
     </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3475,13 +4136,16 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
-        <v>0</v>
+        <v>-2700</v>
       </c>
       <c r="E96" s="3">
         <v>0</v>
@@ -3505,13 +4169,22 @@
         <v>0</v>
       </c>
       <c r="L96" s="3">
+        <v>0</v>
+      </c>
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-340800</v>
       </c>
-      <c r="M96" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3545,8 +4218,17 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3580,8 +4262,17 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3615,109 +4306,145 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>3291600</v>
+        <v>3346400</v>
       </c>
       <c r="E100" s="3">
-        <v>312300</v>
+        <v>-2206900</v>
       </c>
       <c r="F100" s="3">
-        <v>3098400</v>
+        <v>-3484400</v>
       </c>
       <c r="G100" s="3">
-        <v>3632200</v>
+        <v>3142000</v>
       </c>
       <c r="H100" s="3">
+        <v>298100</v>
+      </c>
+      <c r="I100" s="3">
+        <v>2957600</v>
+      </c>
+      <c r="J100" s="3">
+        <v>3467100</v>
+      </c>
+      <c r="K100" s="3">
         <v>1837500</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>5261900</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>5424500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>411300</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>2863200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>2697200</v>
       </c>
     </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-36100</v>
+        <v>74200</v>
       </c>
       <c r="E101" s="3">
-        <v>-45100</v>
+        <v>-37800</v>
       </c>
       <c r="F101" s="3">
-        <v>17300</v>
+        <v>118100</v>
       </c>
       <c r="G101" s="3">
-        <v>4000</v>
+        <v>-34400</v>
       </c>
       <c r="H101" s="3">
+        <v>-43000</v>
+      </c>
+      <c r="I101" s="3">
+        <v>16600</v>
+      </c>
+      <c r="J101" s="3">
+        <v>3800</v>
+      </c>
+      <c r="K101" s="3">
         <v>-63600</v>
       </c>
-      <c r="I101" s="3">
+      <c r="L101" s="3">
         <v>-71800</v>
       </c>
-      <c r="J101" s="3">
+      <c r="M101" s="3">
         <v>60800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="N101" s="3">
         <v>-43500</v>
       </c>
-      <c r="L101" s="3">
+      <c r="O101" s="3">
         <v>80200</v>
       </c>
-      <c r="M101" s="3">
+      <c r="P101" s="3">
         <v>-16600</v>
       </c>
     </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.3">
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>349500</v>
+        <v>-81600</v>
       </c>
       <c r="E102" s="3">
-        <v>366400</v>
+        <v>88000</v>
       </c>
       <c r="F102" s="3">
-        <v>-198500</v>
+        <v>-834800</v>
       </c>
       <c r="G102" s="3">
-        <v>-2068100</v>
+        <v>333700</v>
       </c>
       <c r="H102" s="3">
+        <v>349700</v>
+      </c>
+      <c r="I102" s="3">
+        <v>-189400</v>
+      </c>
+      <c r="J102" s="3">
+        <v>-1974100</v>
+      </c>
+      <c r="K102" s="3">
         <v>196800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>1361300</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>259500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>-967800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>-38800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>530100</v>
       </c>
     </row>
